--- a/src/main/resources/students.xlsx
+++ b/src/main/resources/students.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78AA92A-E14D-4505-AE86-850F18B67836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63289984-C445-4747-8DB4-D86810500A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="579">
   <si>
     <t>№</t>
   </si>
@@ -505,6 +506,1263 @@
   </si>
   <si>
     <t>27.10.1997</t>
+  </si>
+  <si>
+    <t>Сайидов Улуғбек Хусанович</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>кимё технология факультети</t>
+  </si>
+  <si>
+    <t>кимё технология</t>
+  </si>
+  <si>
+    <t>В № 003321</t>
+  </si>
+  <si>
+    <t>12.07.2000</t>
+  </si>
+  <si>
+    <t>бакалавр</t>
+  </si>
+  <si>
+    <t>Холиқова Севара Джасуровна</t>
+  </si>
+  <si>
+    <t>В № 003322</t>
+  </si>
+  <si>
+    <t>Агазамов Бекзод Убайдуллаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> озиқ оқат технологияси факультети</t>
+  </si>
+  <si>
+    <t>озиқ-овқат технологияси</t>
+  </si>
+  <si>
+    <t>В № 003323</t>
+  </si>
+  <si>
+    <t>Джалилова Мохира Хайруллаевич</t>
+  </si>
+  <si>
+    <t>озиқ-овқат технологиясиси факультети</t>
+  </si>
+  <si>
+    <t>В № 003324</t>
+  </si>
+  <si>
+    <t>Джалилова Умидахон Абдухамидовна</t>
+  </si>
+  <si>
+    <t>В № 003325</t>
+  </si>
+  <si>
+    <t>Ромова Ольга Анатольевна</t>
+  </si>
+  <si>
+    <t>В №  035502</t>
+  </si>
+  <si>
+    <t>21.08.2000</t>
+  </si>
+  <si>
+    <t>Тен Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>В № 035503</t>
+  </si>
+  <si>
+    <t>14.08.2000</t>
+  </si>
+  <si>
+    <t>Яценко Эдуард Святославович</t>
+  </si>
+  <si>
+    <t>В № 035504</t>
+  </si>
+  <si>
+    <t>10.02.2000</t>
+  </si>
+  <si>
+    <t>Абдусаломов Абдузохидходжа Абдужаббор ўғли</t>
+  </si>
+  <si>
+    <t>В № 035505</t>
+  </si>
+  <si>
+    <t>10.08.2000</t>
+  </si>
+  <si>
+    <t>Азимходжаев Лазиз Махсудходжаевич</t>
+  </si>
+  <si>
+    <t>В № 035506</t>
+  </si>
+  <si>
+    <t>Абдуллаев Анвар Марат ович</t>
+  </si>
+  <si>
+    <t>В №  035507</t>
+  </si>
+  <si>
+    <t>9.08.2000</t>
+  </si>
+  <si>
+    <t>Мустафаев Рашит Шомуратович</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>кимё технология ва биотехнология</t>
+  </si>
+  <si>
+    <t>В № 035508</t>
+  </si>
+  <si>
+    <t>11.06.2000</t>
+  </si>
+  <si>
+    <t>Рузиев Наримон Раупович</t>
+  </si>
+  <si>
+    <t>В № 035509</t>
+  </si>
+  <si>
+    <t>20.07.2000</t>
+  </si>
+  <si>
+    <t>Эшқобилов Яшин Бегимкулович</t>
+  </si>
+  <si>
+    <t>В № 035510</t>
+  </si>
+  <si>
+    <t>23.03.2001</t>
+  </si>
+  <si>
+    <t>Низамов Дилшод Бахтиярович</t>
+  </si>
+  <si>
+    <t>В № 035511</t>
+  </si>
+  <si>
+    <t>21.07.2000</t>
+  </si>
+  <si>
+    <t>Соибов Комолхон Джалолович</t>
+  </si>
+  <si>
+    <t>В № 035579</t>
+  </si>
+  <si>
+    <t>28.07.2000</t>
+  </si>
+  <si>
+    <t>Дарябаева Луиза Джумабаевна</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>В № 035513</t>
+  </si>
+  <si>
+    <t>3.10.2000</t>
+  </si>
+  <si>
+    <t>Рейпназарова Зинахон Даулетназаровна</t>
+  </si>
+  <si>
+    <t>В № 035514</t>
+  </si>
+  <si>
+    <t>20.11.2000</t>
+  </si>
+  <si>
+    <t>Ешмуратова Салима Генжабаевна</t>
+  </si>
+  <si>
+    <t>В № 035515</t>
+  </si>
+  <si>
+    <t>4.10.200</t>
+  </si>
+  <si>
+    <t>Сугиров Жетписбай Жубанышевич</t>
+  </si>
+  <si>
+    <t>В № 035516</t>
+  </si>
+  <si>
+    <t>24.11.200</t>
+  </si>
+  <si>
+    <t>Маханова Акмарал Жаксылыковна</t>
+  </si>
+  <si>
+    <t>В № 035517</t>
+  </si>
+  <si>
+    <t>9.10.2000</t>
+  </si>
+  <si>
+    <t>Каипов Абай Маратаович</t>
+  </si>
+  <si>
+    <t>В № 035518</t>
+  </si>
+  <si>
+    <t>6.10.2000</t>
+  </si>
+  <si>
+    <t>Олимов Жахонгир Гаппарович</t>
+  </si>
+  <si>
+    <t>В № 035519</t>
+  </si>
+  <si>
+    <t>10.10.2000</t>
+  </si>
+  <si>
+    <t>Абдужалилов Гайрат Махаматкаримович</t>
+  </si>
+  <si>
+    <t>В № 035520</t>
+  </si>
+  <si>
+    <t>18.10.2000</t>
+  </si>
+  <si>
+    <t>Шульга Олег Генадьевич</t>
+  </si>
+  <si>
+    <t>В № 035521</t>
+  </si>
+  <si>
+    <t>Хабипов  Куатбай Калимбетович</t>
+  </si>
+  <si>
+    <t>В № 035525</t>
+  </si>
+  <si>
+    <t>13.12.2000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Бесенбаева Гулнора Даулетбаевна</t>
+  </si>
+  <si>
+    <t>В № 035526</t>
+  </si>
+  <si>
+    <t>27 тн</t>
+  </si>
+  <si>
+    <t>20.08.2000</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Кунакбаева Айман Ахметовна</t>
+  </si>
+  <si>
+    <t>В № 035527</t>
+  </si>
+  <si>
+    <t>28 тн</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Сулатнова Гулшат Колбаевна</t>
+  </si>
+  <si>
+    <t>В № 035528</t>
+  </si>
+  <si>
+    <t>29 тн</t>
+  </si>
+  <si>
+    <t>22.12.2000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Оразов Батыр Сапарбаевич</t>
+  </si>
+  <si>
+    <t>В № 035529</t>
+  </si>
+  <si>
+    <t>30 тн</t>
+  </si>
+  <si>
+    <t>20.10.200</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Таджибаев Мансур Аллабергенович</t>
+  </si>
+  <si>
+    <t>В № 035530</t>
+  </si>
+  <si>
+    <t>31 тн</t>
+  </si>
+  <si>
+    <t>23.05.2001</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Сапарбаева Роза Сапарбаевна</t>
+  </si>
+  <si>
+    <t>В № 035531</t>
+  </si>
+  <si>
+    <t>32 тн</t>
+  </si>
+  <si>
+    <t>25.07.2001</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Байымбетов Байрон Бердибаевич</t>
+  </si>
+  <si>
+    <t>В № 0355321</t>
+  </si>
+  <si>
+    <t>33 тн</t>
+  </si>
+  <si>
+    <t>14.12.2000</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Журалов Шокир Тогаевич</t>
+  </si>
+  <si>
+    <t>В № 035533</t>
+  </si>
+  <si>
+    <t>34 тн</t>
+  </si>
+  <si>
+    <t>30.03.2001</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Юсубов Аъзам Кадамбаевич</t>
+  </si>
+  <si>
+    <t>В № 035554</t>
+  </si>
+  <si>
+    <t>35 тн</t>
+  </si>
+  <si>
+    <t>25.05.2001</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Салихов Сухроб Равшанбекович</t>
+  </si>
+  <si>
+    <t>В № 035535</t>
+  </si>
+  <si>
+    <t>36 тн</t>
+  </si>
+  <si>
+    <t>8.09.2000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Испанова Зульфия Сансызбаевна</t>
+  </si>
+  <si>
+    <t>В № 035537</t>
+  </si>
+  <si>
+    <t>37 тн</t>
+  </si>
+  <si>
+    <t>12.02.2001</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Джуманазарова Шахноза Рустамовна</t>
+  </si>
+  <si>
+    <t>В № 001145</t>
+  </si>
+  <si>
+    <t>38 тн</t>
+  </si>
+  <si>
+    <t>18.09.2000</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Бабаев Акмалжон Хатамович</t>
+  </si>
+  <si>
+    <t>В № 001146</t>
+  </si>
+  <si>
+    <t>39 тн</t>
+  </si>
+  <si>
+    <t>09.09.200</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Рузибаев Бахром Рустамбаевич</t>
+  </si>
+  <si>
+    <t>В № 035542</t>
+  </si>
+  <si>
+    <t>40 тн</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Яхяев Джамшид  Турсинбаевич</t>
+  </si>
+  <si>
+    <t>В № 035543</t>
+  </si>
+  <si>
+    <t>41 тн</t>
+  </si>
+  <si>
+    <t>24.10.200</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Мисабаев Ильёр Сурапбаевич</t>
+  </si>
+  <si>
+    <t>В № 035544</t>
+  </si>
+  <si>
+    <t>42 тн</t>
+  </si>
+  <si>
+    <t>17.10.2000</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Джанибеков Мурат Джарилкаганович</t>
+  </si>
+  <si>
+    <t>В № 035545</t>
+  </si>
+  <si>
+    <t>43 тн</t>
+  </si>
+  <si>
+    <t>15.02.2001</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Усманов Хикматилла Муминжонович</t>
+  </si>
+  <si>
+    <t>В № 035546</t>
+  </si>
+  <si>
+    <t>44 тн</t>
+  </si>
+  <si>
+    <t>26.09.2000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Ядгаров Музаффар Закиржанович</t>
+  </si>
+  <si>
+    <t>В № 035547</t>
+  </si>
+  <si>
+    <t>45 тн</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Фозилов Олег Олегович</t>
+  </si>
+  <si>
+    <t>В № 035548</t>
+  </si>
+  <si>
+    <t>46 тн</t>
+  </si>
+  <si>
+    <t>20.10.2000</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Мараимов Шавкатжон Тюрохимович</t>
+  </si>
+  <si>
+    <t>В № 035549</t>
+  </si>
+  <si>
+    <t>47 тн</t>
+  </si>
+  <si>
+    <t>11.12.200</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Маннанов Шерзод Абдугаффарович</t>
+  </si>
+  <si>
+    <t>В № 035550</t>
+  </si>
+  <si>
+    <t>48 тн</t>
+  </si>
+  <si>
+    <t>11.10.2000</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Исматов Фарход Кабилович</t>
+  </si>
+  <si>
+    <t>В № 035551</t>
+  </si>
+  <si>
+    <t>49 тн</t>
+  </si>
+  <si>
+    <t>5.09.2000</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Ганихужаев Баходирхужа Ботирхужа ўғли</t>
+  </si>
+  <si>
+    <t>В № 035552</t>
+  </si>
+  <si>
+    <t>50 тн</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Кулдашев Шерзод Джураевич</t>
+  </si>
+  <si>
+    <t>В № 035553</t>
+  </si>
+  <si>
+    <t>51 тн</t>
+  </si>
+  <si>
+    <t>25.02.2002</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Алиев Турабек Улугбекович</t>
+  </si>
+  <si>
+    <t>В № 035571</t>
+  </si>
+  <si>
+    <t>52 тн</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Карабаева Алла Юлдашевна</t>
+  </si>
+  <si>
+    <t>В № 035572</t>
+  </si>
+  <si>
+    <t>53 тн</t>
+  </si>
+  <si>
+    <t>29.10.2000</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Миррахимов Миркамол Мирхалилович</t>
+  </si>
+  <si>
+    <t>В № 035573</t>
+  </si>
+  <si>
+    <t>54 тн</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Рўзибаев Жумамурад Озодович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В № 035574</t>
+  </si>
+  <si>
+    <t>55 тн</t>
+  </si>
+  <si>
+    <t>12.10.2000</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Сидыков  Акмал Аскарджанович</t>
+  </si>
+  <si>
+    <t>В № 035575</t>
+  </si>
+  <si>
+    <t>56 тн</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Таирова Раъно Закировна</t>
+  </si>
+  <si>
+    <t>В № 035576</t>
+  </si>
+  <si>
+    <t>57 тн</t>
+  </si>
+  <si>
+    <t>27.10.200</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Юлдашев Музаффар Камилович</t>
+  </si>
+  <si>
+    <t>В № 035577</t>
+  </si>
+  <si>
+    <t>58 тн</t>
+  </si>
+  <si>
+    <t>3.11.2000</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Юсупов Жамшид Сабирович</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>В № 035578</t>
+  </si>
+  <si>
+    <t>59 тн</t>
+  </si>
+  <si>
+    <t>24.10.2000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Ханбердиев Ахмаджон Абдувалиевич</t>
+  </si>
+  <si>
+    <t>В № 035559</t>
+  </si>
+  <si>
+    <t>60 тн</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Абдухамидов Шерзод Чориевич</t>
+  </si>
+  <si>
+    <t>В № 035560</t>
+  </si>
+  <si>
+    <t>61 тн</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Равшанов Рустам Равшанович</t>
+  </si>
+  <si>
+    <t>В № 035561</t>
+  </si>
+  <si>
+    <t>62 тн</t>
+  </si>
+  <si>
+    <t>23.10.2000</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Урунов Рустамжон Дусмурадович</t>
+  </si>
+  <si>
+    <t>В № 035562</t>
+  </si>
+  <si>
+    <t>63 тн</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Тураев Юнус Тураевич</t>
+  </si>
+  <si>
+    <t>В № 035563</t>
+  </si>
+  <si>
+    <t>64 тн</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Исламов Абдумалик Абдукаюмович</t>
+  </si>
+  <si>
+    <t>В № 035564</t>
+  </si>
+  <si>
+    <t>65 тн</t>
+  </si>
+  <si>
+    <t>30.10.2000</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Усманов Дилшодхужа Даниярходжаевич</t>
+  </si>
+  <si>
+    <t>В № 035565</t>
+  </si>
+  <si>
+    <t>66 тн</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Нуруллаев Шухрат Убайдуллаевич</t>
+  </si>
+  <si>
+    <t>В № 035566</t>
+  </si>
+  <si>
+    <t>67 тн</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Гулямов Фаррух Нуруллаевич</t>
+  </si>
+  <si>
+    <t>В № 035567</t>
+  </si>
+  <si>
+    <t>68 тн</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Султанов Султан Русланович</t>
+  </si>
+  <si>
+    <t>В № 035568</t>
+  </si>
+  <si>
+    <t>69 тн</t>
+  </si>
+  <si>
+    <t>4.10.2000</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Турдикулов Эламон Рахматович</t>
+  </si>
+  <si>
+    <t>В № 035569</t>
+  </si>
+  <si>
+    <t>70 тн</t>
+  </si>
+  <si>
+    <t>19.01.2001</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Аширов Сирожиддин Абдуллаевич</t>
+  </si>
+  <si>
+    <t>В № 035570</t>
+  </si>
+  <si>
+    <t>71 тн</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Уринов Жасур Абдурашидович</t>
+  </si>
+  <si>
+    <t>В № 035580</t>
+  </si>
+  <si>
+    <t>72 тн</t>
+  </si>
+  <si>
+    <t>13.09.2000</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Салиев Козимбек Икромжонович</t>
+  </si>
+  <si>
+    <t>В № 035581</t>
+  </si>
+  <si>
+    <t>73 тн</t>
+  </si>
+  <si>
+    <t>28.09.2000</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Холхужаев Отабек Тошбой ўғли</t>
+  </si>
+  <si>
+    <t>В № 035582</t>
+  </si>
+  <si>
+    <t>74 тн</t>
+  </si>
+  <si>
+    <t>16.11.2000</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Абдуқодирова Мерверт Абдурахмановна</t>
+  </si>
+  <si>
+    <t>В № 035583</t>
+  </si>
+  <si>
+    <t>75 тн</t>
+  </si>
+  <si>
+    <t>19.09.2000</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Абдуллаева Дилдора Абдулло қизи</t>
+  </si>
+  <si>
+    <t>В № 035584</t>
+  </si>
+  <si>
+    <t>76 тн</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Хатамов Азамат Жураевич</t>
+  </si>
+  <si>
+    <t>В № 035586</t>
+  </si>
+  <si>
+    <t>77 тн</t>
+  </si>
+  <si>
+    <t>24.08.2000</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Мирзаев Шухрат Туйчиевич</t>
+  </si>
+  <si>
+    <t>В № 035588</t>
+  </si>
+  <si>
+    <t>79 тн</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Файзуллаев Алижон Файзуллаевич</t>
+  </si>
+  <si>
+    <t>В № 035589</t>
+  </si>
+  <si>
+    <t>80 тн</t>
+  </si>
+  <si>
+    <t>06.07.2001</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Баходиров Азим Зиёдилла ўғли</t>
+  </si>
+  <si>
+    <t>В № 035590</t>
+  </si>
+  <si>
+    <t>81 тн</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Розимова Дилафруз Худайбергановна</t>
+  </si>
+  <si>
+    <t>В № 035591</t>
+  </si>
+  <si>
+    <t>82 тн</t>
+  </si>
+  <si>
+    <t>1.11.2000</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Кешпиев Рифат Рустемович</t>
+  </si>
+  <si>
+    <t>В № 035625</t>
+  </si>
+  <si>
+    <t>83 тн</t>
+  </si>
+  <si>
+    <t>19.07.2002</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Ахмедов Искандар Гильманович</t>
+  </si>
+  <si>
+    <t>В № 035611</t>
+  </si>
+  <si>
+    <t>84 тн</t>
+  </si>
+  <si>
+    <t>23.09.2000</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Маханов Шукрулла Холбоевич</t>
+  </si>
+  <si>
+    <t>В № 035612</t>
+  </si>
+  <si>
+    <t>85 тн</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кушшаев Зикрулла Пардаевич </t>
+  </si>
+  <si>
+    <t>В № 035613</t>
+  </si>
+  <si>
+    <t>86 тн</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Диёров Мухиддин Холмаматович</t>
+  </si>
+  <si>
+    <t>В № 035614</t>
+  </si>
+  <si>
+    <t>87 тн</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Насирова Дилноза Нуриддиновна</t>
+  </si>
+  <si>
+    <t>В № 035615</t>
+  </si>
+  <si>
+    <t>88 тн</t>
+  </si>
+  <si>
+    <t>13.11.2000</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Умиров Файзулла Турсинович</t>
+  </si>
+  <si>
+    <t>В № 035616</t>
+  </si>
+  <si>
+    <t>89 тн</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Аширов Латифжон Абдиназарович</t>
+  </si>
+  <si>
+    <t>В № 035617</t>
+  </si>
+  <si>
+    <t>90 тн</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Лучарова Гулнора Шукуруллаевна</t>
+  </si>
+  <si>
+    <t>В № 035618</t>
+  </si>
+  <si>
+    <t>91 тн</t>
+  </si>
+  <si>
+    <t>30.01.2001</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Ишбабаев Хусниддин Улжаевич</t>
+  </si>
+  <si>
+    <t>В № 035619</t>
+  </si>
+  <si>
+    <t>92 тн</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Рузиев Гофур Мусурманович</t>
+  </si>
+  <si>
+    <t>В № 035620</t>
+  </si>
+  <si>
+    <t>93 тн</t>
+  </si>
+  <si>
+    <t>13.10.2000</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Абдуллаев Отамурод Назарович</t>
+  </si>
+  <si>
+    <t>В № 035621</t>
+  </si>
+  <si>
+    <t>94 тн</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Бахадиров Алишер Шукуралиевич</t>
+  </si>
+  <si>
+    <t>В № 035622</t>
+  </si>
+  <si>
+    <t>95 тн</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Раупов Элмурод Расулович</t>
+  </si>
+  <si>
+    <t>В № 035626</t>
+  </si>
+  <si>
+    <t>96 тн</t>
+  </si>
+  <si>
+    <t>15.09.2000</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Ахмедов Зафар Тохирович</t>
+  </si>
+  <si>
+    <t>В № 035627</t>
+  </si>
+  <si>
+    <t>97 тн</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Зупаров Равшан Рустамович</t>
+  </si>
+  <si>
+    <t>В № 035628</t>
+  </si>
+  <si>
+    <t>98 тн</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Казаков Мирзохид Алимжанович</t>
+  </si>
+  <si>
+    <t>В № 035629</t>
+  </si>
+  <si>
+    <t>99 тн</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Худайкулов Акбар Холмахаматович</t>
+  </si>
+  <si>
+    <t>В № 035630</t>
+  </si>
+  <si>
+    <t>100 тн</t>
   </si>
 </sst>
 </file>
@@ -538,12 +1796,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -573,7 +1837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,6 +1846,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2011,4 +3278,4217 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6967FE-F061-440D-9D58-A17E4D493ABA}">
+  <dimension ref="A1:N100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N100" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>